--- a/data.xlsx
+++ b/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>فروردین</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Soil Water Solidity</t>
+  </si>
+  <si>
+    <t>Field Capacity</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,6 +1306,22 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
